--- a/Compare.xlsx
+++ b/Compare.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/didi/Desktop/didi/senaann-bnn/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tsubaki/Desktop/Github/senaann-bnn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22910C2B-B9B0-2D4D-963C-CC0DCE4CD2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1581E66-DB5A-224A-8B77-03EA7739C592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28480" windowHeight="16340" xr2:uid="{96BE7C8E-E495-1F4B-99DA-A4F654493033}"/>
   </bookViews>
@@ -19,13 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -738,7 +731,7 @@
   <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="I2" sqref="I2:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -799,13 +792,13 @@
         <v>0</v>
       </c>
       <c r="G2" s="3">
-        <v>0.19719999999999999</v>
+        <v>0.20119999999999999</v>
       </c>
       <c r="H2" s="3">
-        <v>0.16539999999999999</v>
+        <v>0.1047</v>
       </c>
       <c r="I2" s="3">
-        <v>0.18540000000000001</v>
+        <v>0.1668</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="40">
@@ -825,13 +818,13 @@
         <v>1</v>
       </c>
       <c r="G3" s="3">
-        <v>0.37209999999999999</v>
+        <v>0.37659999999999999</v>
       </c>
       <c r="H3" s="3">
-        <v>0.32190000000000002</v>
+        <v>0.2147</v>
       </c>
       <c r="I3" s="3">
-        <v>0.34920000000000001</v>
+        <v>0.31819999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="40">
@@ -851,13 +844,13 @@
         <v>2</v>
       </c>
       <c r="G4" s="3">
-        <v>0.53849999999999998</v>
+        <v>0.54290000000000005</v>
       </c>
       <c r="H4" s="3">
-        <v>0.4657</v>
+        <v>0.32979999999999998</v>
       </c>
       <c r="I4" s="3">
-        <v>0.48249999999999998</v>
+        <v>0.45200000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="40">
@@ -877,13 +870,13 @@
         <v>3</v>
       </c>
       <c r="G5" s="3">
-        <v>0.67730000000000001</v>
+        <v>0.6804</v>
       </c>
       <c r="H5" s="3">
-        <v>0.59230000000000005</v>
+        <v>0.44440000000000002</v>
       </c>
       <c r="I5" s="3">
-        <v>0.58230000000000004</v>
+        <v>0.56579999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="40">
@@ -903,13 +896,13 @@
         <v>4</v>
       </c>
       <c r="G6" s="3">
-        <v>0.79900000000000004</v>
+        <v>0.79500000000000004</v>
       </c>
       <c r="H6" s="3">
-        <v>0.69740000000000002</v>
+        <v>0.55479999999999996</v>
       </c>
       <c r="I6" s="3">
-        <v>0.65500000000000003</v>
+        <v>0.65720000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="40">
@@ -929,13 +922,13 @@
         <v>5</v>
       </c>
       <c r="G7" s="3">
-        <v>0.87980000000000003</v>
+        <v>0.86929999999999996</v>
       </c>
       <c r="H7" s="3">
-        <v>0.78300000000000003</v>
+        <v>0.65329999999999999</v>
       </c>
       <c r="I7" s="3">
-        <v>0.70920000000000005</v>
+        <v>0.72729999999999995</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="19">

--- a/Compare.xlsx
+++ b/Compare.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tsubaki/Desktop/Github/senaann-bnn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1581E66-DB5A-224A-8B77-03EA7739C592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87AD7C58-FEA7-3043-B7C5-E92F1CF69E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28480" windowHeight="16340" xr2:uid="{96BE7C8E-E495-1F4B-99DA-A4F654493033}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{96BE7C8E-E495-1F4B-99DA-A4F654493033}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="22">
   <si>
     <r>
       <t>(V</t>
@@ -342,6 +342,50 @@
   </si>
   <si>
     <t>codesign-traing 30mv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(V</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>DBL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - 5mv, V</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>DBL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + 5mv)</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -730,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD698CE-A93C-1146-9E9A-83657527170D}">
   <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I8"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="95" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -789,7 +833,7 @@
         <v>0.18540000000000001</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G2" s="3">
         <v>0.20119999999999999</v>
@@ -1844,5 +1888,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>